--- a/branches/draft/ValueSet-vs-vn-administrativeaddress.xlsx
+++ b/branches/draft/ValueSet-vs-vn-administrativeaddress.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T20:43:03+00:00</t>
+    <t>2022-02-25T20:52:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/draft/ValueSet-vs-vn-administrativeaddress.xlsx
+++ b/branches/draft/ValueSet-vs-vn-administrativeaddress.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T20:52:14+00:00</t>
+    <t>2022-02-25T20:59:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/draft/ValueSet-vs-vn-administrativeaddress.xlsx
+++ b/branches/draft/ValueSet-vs-vn-administrativeaddress.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T20:59:17+00:00</t>
+    <t>2022-02-25T21:00:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/draft/ValueSet-vs-vn-administrativeaddress.xlsx
+++ b/branches/draft/ValueSet-vs-vn-administrativeaddress.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T21:00:17+00:00</t>
+    <t>2022-02-25T21:34:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
